--- a/dataset/score/bharga.xlsx
+++ b/dataset/score/bharga.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G2" t="n">
         <v>0.75</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7921052631578946</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G7" t="n">
         <v>0.75</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9925</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
         <v>0.75</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J14" t="n">
         <v>0.75</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J15" t="n">
         <v>0.25</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8324999999999999</v>
+        <v>0.8689285714285713</v>
       </c>
       <c r="G16" t="n">
         <v>0.75</v>
@@ -1201,10 +1201,10 @@
         <v>0.9875</v>
       </c>
       <c r="I16" t="n">
-        <v>0.925</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J19" t="n">
         <v>0.75</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8368421052631578</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="G20" t="n">
         <v>0.75</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J20" t="n">
         <v>0.5</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
         <v>0.25</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9375</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J22" t="n">
         <v>0.75</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J23" t="n">
         <v>0.75</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>0.75</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
         <v>0.75</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9394736842105263</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G25" t="n">
         <v>0.75</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J26" t="n">
         <v>0.75</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J28" t="n">
         <v>0.75</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8975</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J32" t="n">
         <v>0.75</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2065,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J34" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J35" t="n">
         <v>0.75</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J36" t="n">
         <v>0.75</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J38" t="n">
         <v>0.5</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G39" t="n">
         <v>0.75</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J39" t="n">
         <v>0.5</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G40" t="n">
         <v>0.75</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
         <v>0.25</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G43" t="n">
         <v>0.75</v>
@@ -2497,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="G44" t="n">
         <v>0.75</v>
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J44" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="n">
         <v>0.75</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G46" t="n">
         <v>0.75</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J47" t="n">
         <v>0.75</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8394736842105264</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G49" t="n">
         <v>0.75</v>
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G50" t="n">
         <v>0.75</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J50" t="n">
         <v>0.5</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J51" t="n">
         <v>0.5</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G52" t="n">
         <v>0.75</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2977,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K53" t="n">
         <v>0.75</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.845</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J54" t="n">
         <v>0.25</v>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G59" t="n">
         <v>0.75</v>
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.8394736842105264</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="G60" t="n">
         <v>0.75</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J60" t="n">
         <v>0.5</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3361,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.95</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0.75</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.7921052631578946</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G63" t="n">
         <v>0.75</v>
@@ -3457,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J63" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G64" t="n">
         <v>0.75</v>
@@ -3505,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3601,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J66" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3649,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J68" t="n">
         <v>0.5</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J71" t="n">
         <v>0.75</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G72" t="n">
         <v>0.75</v>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J72" t="n">
         <v>0.75</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G77" t="n">
         <v>0.75</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G78" t="n">
         <v>0.75</v>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J78" t="n">
         <v>0.75</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G79" t="n">
         <v>0.75</v>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J79" t="n">
         <v>0.75</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4273,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4369,10 +4369,10 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.89</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.95</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J84" t="n">
         <v>0.5</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
         <v>0.75</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4561,10 +4561,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J89" t="n">
         <v>0.5</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J91" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
         <v>0.75</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G93" t="n">
         <v>0.75</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
         <v>0.5</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>0.75</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G100" t="n">
         <v>0.75</v>
@@ -5233,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5329,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>

--- a/dataset/score/bharga.xlsx
+++ b/dataset/score/bharga.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8689285714285713</v>
+        <v>0.9189285714285715</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0.8571428571428571</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8142857142857143</v>
+        <v>0.8642857142857142</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9214285714285715</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J30" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0.9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J35" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G40" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G43" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J43" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8214285714285715</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G44" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G45" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G46" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8714285714285716</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2980,7 +2980,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0.75</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J54" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3064,10 +3064,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.8214285714285715</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J64" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3736,19 +3736,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J71" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -3979,16 +3979,16 @@
         <v>0.95</v>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -4216,10 +4216,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
